--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_DAKOTA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_DAKOTA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C23">
@@ -783,7 +783,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C29">
@@ -796,7 +796,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C30">
@@ -840,7 +840,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C33">
@@ -871,7 +871,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C35">
@@ -988,7 +988,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C44">
@@ -1014,7 +1014,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C46">
@@ -1273,7 +1273,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C64">
@@ -1369,7 +1369,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C71">
@@ -1457,7 +1457,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C77">
@@ -1638,7 +1638,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C89">
@@ -1685,76 +1685,6 @@
       </c>
       <c r="D92">
         <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_DAKOTA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NORTH_DAKOTA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -851,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -882,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -895,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -908,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1214,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>General Terán</t>
@@ -1227,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1284,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1297,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Santa María Peñoles</t>
@@ -1310,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1341,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -1354,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1367,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -1380,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1411,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1424,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1455,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -1468,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1499,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -1512,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1543,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1574,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1605,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1636,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -1649,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1662,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
